--- a/Finance/machine_cost.xlsx
+++ b/Finance/machine_cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasvilsen/Desktop/ReUse/Finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A307ED5B-FAF4-3C44-9075-1FD69BAF4472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEB6F48-8B90-D64B-B307-41E83AD79333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="500" windowWidth="27000" windowHeight="16940" xr2:uid="{BF5F03AA-B4DF-3B40-9696-4598B1ACBD00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Machine Cost</t>
   </si>
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Wires</t>
+  </si>
+  <si>
+    <t>Other utilities bought:</t>
+  </si>
+  <si>
+    <t>Voltmeter</t>
+  </si>
+  <si>
+    <t>Pulleys</t>
+  </si>
+  <si>
+    <t>Bearings</t>
   </si>
 </sst>
 </file>
@@ -87,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,9 +149,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CED527-FAC2-6041-BC21-0A0F3DAC8DDF}">
-  <dimension ref="B3:D20"/>
+  <dimension ref="B3:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,9 +478,10 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +491,12 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -479,8 +506,14 @@
       <c r="D4" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -490,35 +523,49 @@
       <c r="D5" s="1">
         <v>316</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>2000</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="1">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>1000</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>2000</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="1">
+        <v>160</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -526,8 +573,10 @@
         <v>500</v>
       </c>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -535,8 +584,10 @@
         <v>500</v>
       </c>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -544,48 +595,78 @@
         <v>3000</v>
       </c>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
+      <c r="D12" s="1">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="1">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="1">
+        <v>40</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
@@ -595,8 +676,10 @@
       </c>
       <c r="D20" s="1">
         <f>SUM(D4:D19)</f>
-        <v>466</v>
-      </c>
+        <v>1008</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
